--- a/anlaysis1.xlsx
+++ b/anlaysis1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -49,6 +49,93 @@
     <t>Coursename</t>
   </si>
   <si>
+    <t>Jingar</t>
+  </si>
+  <si>
+    <t>Meraz</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>pmeraz@gmail.com</t>
+  </si>
+  <si>
+    <t>9821313455</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>DeepLearning</t>
+  </si>
+  <si>
+    <t>Popa</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>bhavik</t>
+  </si>
+  <si>
+    <t>prajapati</t>
+  </si>
+  <si>
+    <t>1998-02-21</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>mett@hotmail.com</t>
+  </si>
+  <si>
+    <t>9856231470</t>
+  </si>
+  <si>
+    <t>COMPS</t>
+  </si>
+  <si>
+    <t>bsc</t>
+  </si>
+  <si>
+    <t>sushant</t>
+  </si>
+  <si>
+    <t>singh</t>
+  </si>
+  <si>
+    <t>1985-02-11</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>sushi@gmail.com</t>
+  </si>
+  <si>
+    <t>7845196666</t>
+  </si>
+  <si>
+    <t>AiI</t>
+  </si>
+  <si>
     <t>Niraj</t>
   </si>
   <si>
@@ -61,12 +148,6 @@
     <t>18</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>njain2698.nj@gmail.c</t>
   </si>
   <si>
@@ -79,9 +160,6 @@
     <t>Information Technology</t>
   </si>
   <si>
-    <t>Student</t>
-  </si>
-  <si>
     <t>DataMining</t>
   </si>
   <si>
@@ -103,19 +181,214 @@
     <t>9882337330</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Computer</t>
   </si>
   <si>
     <t>MathLabs</t>
   </si>
   <si>
+    <t>Iundersta</t>
+  </si>
+  <si>
+    <t>Hahah</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>hahi@gmail.com</t>
+  </si>
+  <si>
+    <t>9378412323</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
     <t>Electronics</t>
+  </si>
+  <si>
+    <t>alai</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>1999-08-11</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>7845129630</t>
+  </si>
+  <si>
+    <t>machinelearning</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>kishorim@gmail.com</t>
+  </si>
+  <si>
+    <t>9821314877</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>niraj.sj@somaiya.edu</t>
+  </si>
+  <si>
+    <t>heena</t>
+  </si>
+  <si>
+    <t>patel</t>
+  </si>
+  <si>
+    <t>1999-02-11</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>hena@gmail.com</t>
+  </si>
+  <si>
+    <t>7894563210</t>
+  </si>
+  <si>
+    <t>mbbs</t>
+  </si>
+  <si>
+    <t>Jingnesh</t>
+  </si>
+  <si>
+    <t>Shaha</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>9812233340</t>
+  </si>
+  <si>
+    <t>EXTC</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>raomnal</t>
+  </si>
+  <si>
+    <t>pandav</t>
+  </si>
+  <si>
+    <t>1998-12-11</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>oaoao@gmail.com</t>
+  </si>
+  <si>
+    <t>hiren</t>
+  </si>
+  <si>
+    <t>variya</t>
+  </si>
+  <si>
+    <t>2000-08-27</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>hirenmakwana@gamil.c</t>
+  </si>
+  <si>
+    <t>9234556789</t>
+  </si>
+  <si>
+    <t>bcom</t>
+  </si>
+  <si>
+    <t>rakesh</t>
+  </si>
+  <si>
+    <t>tiwari</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>rakesh@hotmail.com</t>
+  </si>
+  <si>
+    <t>9876543214</t>
+  </si>
+  <si>
+    <t>bootstrap</t>
+  </si>
+  <si>
+    <t>hardik</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>nandu@gmail.com</t>
+  </si>
+  <si>
+    <t>7907777777</t>
+  </si>
+  <si>
+    <t>Sonal</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>pravin</t>
+  </si>
+  <si>
+    <t>valriya</t>
+  </si>
+  <si>
+    <t>1998-09-11</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>9865653214</t>
   </si>
 </sst>
 </file>
@@ -492,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -585,14 +858,14 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
@@ -600,60 +873,744 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" t="s">
         <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/anlaysis1.xlsx
+++ b/anlaysis1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,348 @@
   </si>
   <si>
     <t>Coursename</t>
+  </si>
+  <si>
+    <t>Jingar</t>
+  </si>
+  <si>
+    <t>Meraz</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>pmeraz@gmail.com</t>
+  </si>
+  <si>
+    <t>9821313455</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>DeepLearning</t>
+  </si>
+  <si>
+    <t>Popa</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>bhavik</t>
+  </si>
+  <si>
+    <t>prajapati</t>
+  </si>
+  <si>
+    <t>1998-02-21</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>mett@hotmail.com</t>
+  </si>
+  <si>
+    <t>9856231470</t>
+  </si>
+  <si>
+    <t>COMPS</t>
+  </si>
+  <si>
+    <t>bsc</t>
+  </si>
+  <si>
+    <t>sushant</t>
+  </si>
+  <si>
+    <t>singh</t>
+  </si>
+  <si>
+    <t>1985-02-11</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>sushi@gmail.com</t>
+  </si>
+  <si>
+    <t>7845196666</t>
+  </si>
+  <si>
+    <t>AiI</t>
+  </si>
+  <si>
+    <t>Niraj</t>
+  </si>
+  <si>
+    <t>Jain</t>
+  </si>
+  <si>
+    <t>26/09/98</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>njain2698.nj@gmail.c</t>
+  </si>
+  <si>
+    <t>8452035566</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>DataMining</t>
+  </si>
+  <si>
+    <t>Suraj</t>
+  </si>
+  <si>
+    <t>Kishor</t>
+  </si>
+  <si>
+    <t>03/04/2000</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>kishor@gmail.com</t>
+  </si>
+  <si>
+    <t>9882337330</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>MathLabs</t>
+  </si>
+  <si>
+    <t>Iundersta</t>
+  </si>
+  <si>
+    <t>Hahah</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>hahi@gmail.com</t>
+  </si>
+  <si>
+    <t>9378412323</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>alai</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>1999-08-11</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>7845129630</t>
+  </si>
+  <si>
+    <t>machinelearning</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>kishorim@gmail.com</t>
+  </si>
+  <si>
+    <t>9821314877</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>niraj.sj@somaiya.edu</t>
+  </si>
+  <si>
+    <t>heena</t>
+  </si>
+  <si>
+    <t>patel</t>
+  </si>
+  <si>
+    <t>1999-02-11</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>hena@gmail.com</t>
+  </si>
+  <si>
+    <t>7894563210</t>
+  </si>
+  <si>
+    <t>mbbs</t>
+  </si>
+  <si>
+    <t>Jingnesh</t>
+  </si>
+  <si>
+    <t>Shaha</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>9812233340</t>
+  </si>
+  <si>
+    <t>EXTC</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>raomnal</t>
+  </si>
+  <si>
+    <t>pandav</t>
+  </si>
+  <si>
+    <t>1998-12-11</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>oaoao@gmail.com</t>
+  </si>
+  <si>
+    <t>hiren</t>
+  </si>
+  <si>
+    <t>variya</t>
+  </si>
+  <si>
+    <t>2000-08-27</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>hirenmakwana@gamil.c</t>
+  </si>
+  <si>
+    <t>9234556789</t>
+  </si>
+  <si>
+    <t>bcom</t>
+  </si>
+  <si>
+    <t>rakesh</t>
+  </si>
+  <si>
+    <t>tiwari</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>rakesh@hotmail.com</t>
+  </si>
+  <si>
+    <t>9876543214</t>
+  </si>
+  <si>
+    <t>bootstrap</t>
+  </si>
+  <si>
+    <t>hardik</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>nandu@gmail.com</t>
+  </si>
+  <si>
+    <t>7907777777</t>
+  </si>
+  <si>
+    <t>Sonal</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>pravin</t>
+  </si>
+  <si>
+    <t>valriya</t>
+  </si>
+  <si>
+    <t>1998-09-11</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>9865653214</t>
   </si>
 </sst>
 </file>
@@ -423,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -473,6 +815,804 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/anlaysis1.xlsx
+++ b/anlaysis1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,129 @@
   </si>
   <si>
     <t>Coursename</t>
+  </si>
+  <si>
+    <t>Hardik</t>
+  </si>
+  <si>
+    <t>Variya</t>
+  </si>
+  <si>
+    <t>1998-12-06</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>hardikvariya98@gmail</t>
+  </si>
+  <si>
+    <t>7021863802</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Blockchain</t>
+  </si>
+  <si>
+    <t>Niraj</t>
+  </si>
+  <si>
+    <t>Jain</t>
+  </si>
+  <si>
+    <t>1998-06-06</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>nirajjain@gmail.com</t>
+  </si>
+  <si>
+    <t>9696969887</t>
+  </si>
+  <si>
+    <t>machinelearning</t>
+  </si>
+  <si>
+    <t>aditya</t>
+  </si>
+  <si>
+    <t>kha</t>
+  </si>
+  <si>
+    <t>1999-02-11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>khatia@gmail.com</t>
+  </si>
+  <si>
+    <t>7845129630</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>sagar</t>
+  </si>
+  <si>
+    <t>Mandiviya</t>
+  </si>
+  <si>
+    <t>1998-11-09</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>sagar@gmail.com</t>
+  </si>
+  <si>
+    <t>9865320147</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>ETRX</t>
+  </si>
+  <si>
+    <t>DataAnalysis</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Thakur</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>abhishek@yahoo.com</t>
+  </si>
+  <si>
+    <t>9632587410</t>
+  </si>
+  <si>
+    <t>Nodejs</t>
   </si>
 </sst>
 </file>
@@ -423,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -473,6 +596,196 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
